--- a/experiment/bank_sentiment_svm/analyze/score.xlsx
+++ b/experiment/bank_sentiment_svm/analyze/score.xlsx
@@ -497,16 +497,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -581,28 +581,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G5" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="H5" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -610,7 +610,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>195</v>
@@ -619,19 +619,19 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>0.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="H6" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>215</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>0.97</v>
@@ -715,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -726,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>210</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
         <v>0.95</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.15</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -755,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>222</v>
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -784,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>207</v>
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -990,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>214</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>0.97</v>
@@ -1150,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="I24" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/bank_sentiment_svm/analyze/score.xlsx
+++ b/experiment/bank_sentiment_svm/analyze/score.xlsx
@@ -497,16 +497,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -555,10 +555,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -581,28 +581,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -610,28 +610,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0.91</v>
       </c>
       <c r="G6" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -784,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>207</v>
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -990,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>220</v>
@@ -1025,19 +1025,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0.99</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:9">
